--- a/public/upload/sdtmError4.xlsx
+++ b/public/upload/sdtmError4.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40800" yWindow="0" windowWidth="36780" windowHeight="20180"/>
+    <workbookView xWindow="40800" yWindow="0" windowWidth="36780" windowHeight="20180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3-1-2" sheetId="1" r:id="rId1"/>
+    <sheet name="Extra" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="sdtm_3_1_2_excel" localSheetId="0">'3-1-2'!$A$1:$I$840</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5740" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5743" uniqueCount="1218">
   <si>
     <t>Observation Class</t>
   </si>
@@ -3692,6 +3693,12 @@
   </si>
   <si>
     <t>Seq. For Order</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <t>Structure</t>
   </si>
 </sst>
 </file>
@@ -4111,7 +4118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I840"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
@@ -25555,4 +25562,38 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>